--- a/4_HorseChess/4_HorseChess.xlsx
+++ b/4_HorseChess/4_HorseChess.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Учеба/7 сем/Прога/4_HorseChess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B7ED8C5-BFD0-914A-ABBC-B2FDB114435C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068ACF43-DFEC-B642-8E7D-E3E2AC03EB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{94DE2FDD-B56C-9F4A-9184-41C3B58B1031}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{94DE2FDD-B56C-9F4A-9184-41C3B58B1031}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$C$44:$C$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$D$44:$D$51</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Лист1!$C$44:$C$51</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Лист1!$D$44:$D$51</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -210,9 +203,6 @@
                 <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -226,13 +216,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2223</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8840</c:v>
@@ -242,9 +232,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7151179</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8250733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,6 +309,7 @@
       <c:valAx>
         <c:axId val="1172623408"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1840,12 +1828,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1880,10 +1868,10 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2210,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F310DF-A8DE-214A-B643-E5E1B3CB6D0F}">
   <dimension ref="B6:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2229,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -2237,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
@@ -2245,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -2270,14 +2258,6 @@
       </c>
       <c r="C12">
         <v>7151179</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>8250733</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
